--- a/staff_information.xlsx
+++ b/staff_information.xlsx
@@ -502,10 +502,8 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0572186596</t>
-        </is>
+      <c r="E3" t="n">
+        <v>572186596</v>
       </c>
     </row>
   </sheetData>
